--- a/markdown/markdown_demo/markdown_demo/PackagesRProjekt.xlsx
+++ b/markdown/markdown_demo/markdown_demo/PackagesRProjekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matuscda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matuscda/Documents/GitHub/2022-topic-02-team-05/markdown/markdown_demo/markdown_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33666D5C-CDDB-5B41-B023-9C6EEDD6FD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC4069E-A46A-9748-B968-79FC5C68B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
+    <workbookView xWindow="1840" yWindow="680" windowWidth="28800" windowHeight="16020" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t xml:space="preserve">Package </t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>https://cran.r-project.org/web/packages/pheatmap/pheatmap.pdf</t>
+  </si>
+  <si>
+    <t>AnnotationDbi</t>
+  </si>
+  <si>
+    <t>org.Hs.eg.db</t>
+  </si>
+  <si>
+    <t>descr_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translating ensemble ids into gennames </t>
+  </si>
+  <si>
+    <t>https://bioconductor.org/packages/release/bioc/html/AnnotationDbi.html</t>
+  </si>
+  <si>
+    <t>https://bioconductor.org/packages/release/data/annotation/html/org.Hs.eg.db.html</t>
   </si>
 </sst>
 </file>
@@ -625,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91197DA1-1283-2445-8AAE-77FFCAB9EC92}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,6 +929,34 @@
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -933,6 +979,8 @@
     <hyperlink ref="D6" r:id="rId16" xr:uid="{95CA9ADF-8CB8-1A48-A81D-5457412D2224}"/>
     <hyperlink ref="D3" r:id="rId17" xr:uid="{371F4B09-FEA3-CE41-85BE-B1BACBF09B86}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{A1E3A95F-F421-2841-B3FD-DFA65AF05045}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{785638E3-25B3-C345-8B8A-F4805FCA5E5F}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{86F13372-44CA-0D4D-8A66-0CE5CAFC882B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
